--- a/Work.xlsx
+++ b/Work.xlsx
@@ -29,33 +29,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>步骤（无实质作用）</t>
   </si>
   <si>
-    <t>参数</t>
+    <t>参数1</t>
   </si>
   <si>
     <t>行为类型</t>
   </si>
   <si>
-    <t>D:\MyAuto\PNG\1.png</t>
-  </si>
-  <si>
-    <t>D:\MyAuto\PNG\2.png</t>
-  </si>
-  <si>
-    <t>D:\MyAuto\PNG\3.png</t>
-  </si>
-  <si>
-    <t>1是点击一次图片找不到图片就跳过</t>
-  </si>
-  <si>
-    <t>2是点击一次图片找不到图片就一直找</t>
-  </si>
-  <si>
-    <t>3是延时（秒）</t>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>常用按键参数（冒号左边是参数）</t>
+  </si>
+  <si>
+    <t>enter：Enter键</t>
+  </si>
+  <si>
+    <t>D:\Auto\1.png</t>
+  </si>
+  <si>
+    <t>esc：Escape键</t>
+  </si>
+  <si>
+    <t>space：空格键</t>
+  </si>
+  <si>
+    <t>1151, 488</t>
+  </si>
+  <si>
+    <t>tab：Tab键</t>
+  </si>
+  <si>
+    <t>你好世界</t>
+  </si>
+  <si>
+    <t>backspace：Backspace键</t>
+  </si>
+  <si>
+    <t>ctrl</t>
+  </si>
+  <si>
+    <t>delete：Delete键</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>up：向上箭头键</t>
+  </si>
+  <si>
+    <t>down：向下箭头键</t>
+  </si>
+  <si>
+    <t>https://www.baidu.com/</t>
+  </si>
+  <si>
+    <t>left：向左箭头键</t>
+  </si>
+  <si>
+    <t>1是延时（秒）</t>
+  </si>
+  <si>
+    <t>right：向右箭头键</t>
+  </si>
+  <si>
+    <t>D:\Auto\8.png</t>
+  </si>
+  <si>
+    <t>2是鼠标左键点一次图找不到图就跳过</t>
+  </si>
+  <si>
+    <t>2.1是鼠标右键点一次图找不到图就跳过</t>
+  </si>
+  <si>
+    <t>shift：Shift键</t>
+  </si>
+  <si>
+    <t>3是鼠标左键点一次图找不到图就一直找</t>
+  </si>
+  <si>
+    <t>3.1是鼠标右键点一次图找不到图就一直找</t>
+  </si>
+  <si>
+    <t>ctrl：Control键</t>
+  </si>
+  <si>
+    <t>4是鼠标左键点击坐标</t>
+  </si>
+  <si>
+    <t>4.1是鼠标右键点击坐标</t>
+  </si>
+  <si>
+    <t>alt：Alt键</t>
+  </si>
+  <si>
+    <t>5是写入文字</t>
+  </si>
+  <si>
+    <t>f1到f12：F1到F12键</t>
+  </si>
+  <si>
+    <t>6是长按一个按键</t>
+  </si>
+  <si>
+    <t>7是松开一个按键</t>
+  </si>
+  <si>
+    <t>8是快速按一下一个按键</t>
+  </si>
+  <si>
+    <t>9是打开一个网页</t>
+  </si>
+  <si>
+    <t>10是打开一个文件</t>
+  </si>
+  <si>
+    <t>11是如参数1图在，鼠标左键点参数2图片</t>
+  </si>
+  <si>
+    <t>11.1和11类似，但是用鼠标右键</t>
   </si>
 </sst>
 </file>
@@ -995,22 +1091,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="42.75" customWidth="1"/>
-    <col min="3" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="10" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="6" max="6" width="36.375" customWidth="1"/>
+    <col min="7" max="7" width="36.875" customWidth="1"/>
+    <col min="8" max="8" width="28.125" customWidth="1"/>
+    <col min="9" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1020,75 +1120,241 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3"/>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0.2</v>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="1" t="s">
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="1" t="s">
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="1" t="s">
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
         <v>8</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="6:8">
+      <c r="F13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="6:8">
+      <c r="F14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="6:8">
+      <c r="F15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Work.xlsx
+++ b/Work.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>步骤（无实质作用）</t>
   </si>
@@ -55,6 +55,9 @@
     <t>esc：Escape键</t>
   </si>
   <si>
+    <t>1, 48</t>
+  </si>
+  <si>
     <t>space：空格键</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
   </si>
   <si>
     <t>2.1是鼠标右键点一次图找不到图就跳过</t>
+  </si>
+  <si>
+    <t>参数2可以选填偏移量</t>
   </si>
   <si>
     <t>shift：Shift键</t>
@@ -1091,13 +1097,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
@@ -1106,11 +1112,12 @@
     <col min="5" max="5" width="10.375" customWidth="1"/>
     <col min="6" max="6" width="36.375" customWidth="1"/>
     <col min="7" max="7" width="36.875" customWidth="1"/>
-    <col min="8" max="8" width="28.125" customWidth="1"/>
-    <col min="9" max="10" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="9" max="9" width="22.5" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1123,11 +1130,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1137,11 +1144,11 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1151,12 +1158,11 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3"/>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1166,95 +1172,98 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1265,13 +1274,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1282,79 +1291,85 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="6:8">
+      <c r="H12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="6:9">
       <c r="F13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="6:8">
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="6:9">
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="6:8">
+        <v>32</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="6:9">
       <c r="F15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="I15" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="6:6">
       <c r="F16" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Work.xlsx
+++ b/Work.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="18045" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>步骤（无实质作用）</t>
   </si>
@@ -109,12 +109,15 @@
     <t>2.1是鼠标右键点一次图找不到图就跳过</t>
   </si>
   <si>
-    <t>参数2可以选填偏移量</t>
+    <t>参数2可以选填坐标偏移量</t>
   </si>
   <si>
     <t>shift：Shift键</t>
   </si>
   <si>
+    <t>100, 100</t>
+  </si>
+  <si>
     <t>3是鼠标左键点一次图找不到图就一直找</t>
   </si>
   <si>
@@ -142,9 +145,15 @@
     <t>6是长按一个按键</t>
   </si>
   <si>
+    <t>mouseL：鼠标左键</t>
+  </si>
+  <si>
     <t>7是松开一个按键</t>
   </si>
   <si>
+    <t>mouseR：鼠标右键</t>
+  </si>
+  <si>
     <t>8是快速按一下一个按键</t>
   </si>
   <si>
@@ -158,6 +167,12 @@
   </si>
   <si>
     <t>11.1和11类似，但是用鼠标右键</t>
+  </si>
+  <si>
+    <t>12是鼠标移动到坐标</t>
+  </si>
+  <si>
+    <t>13是鼠标移动到图片</t>
   </si>
 </sst>
 </file>
@@ -1097,10 +1112,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1110,9 +1125,9 @@
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="22.375" customWidth="1"/>
     <col min="5" max="5" width="10.375" customWidth="1"/>
-    <col min="6" max="6" width="36.375" customWidth="1"/>
-    <col min="7" max="7" width="36.875" customWidth="1"/>
-    <col min="8" max="8" width="19.25" customWidth="1"/>
+    <col min="6" max="6" width="34.625" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
     <col min="10" max="10" width="11.5" customWidth="1"/>
   </cols>
@@ -1158,6 +1173,7 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3"/>
       <c r="I3" t="s">
         <v>7</v>
       </c>
@@ -1273,6 +1289,7 @@
       <c r="C11">
         <v>10</v>
       </c>
+      <c r="D11"/>
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
@@ -1306,70 +1323,110 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="6:9">
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>26</v>
       </c>
       <c r="I13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="6:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="6:9">
       <c r="F15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="6:6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="6:9">
       <c r="F16" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="6:6">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="6:9">
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="6:6">
       <c r="F18" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="6:6">
       <c r="F19" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="6:6">
       <c r="F20" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="6:6">
+      <c r="F22" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Work.xlsx
+++ b/Work.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>步骤（无实质作用）</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>13是鼠标移动到图片</t>
+  </si>
+  <si>
+    <t>14是找到图片继续执行，否则停止程序</t>
   </si>
 </sst>
 </file>
@@ -1112,10 +1115,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1369,7 +1372,16 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="6:9">
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
       <c r="F15" s="1" t="s">
         <v>35</v>
       </c>
@@ -1427,6 +1439,11 @@
       </c>
       <c r="G23" s="1" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="6:6">
+      <c r="F24" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
